--- a/labels/Anastomosis Graded Videos.xlsx
+++ b/labels/Anastomosis Graded Videos.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive - Southern Methodist University\SMU-Study\S3\new_surgey_video\labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive - Southern Methodist University\SMU-Study\S3\surgery-video-analysis\labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_CA1C2E1BC1E7ACD5A3AD6548FCEF6AE57E0F7384" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB800FCB-FA4C-48A9-86EC-471309CD7C18}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_CA1C2E1BC1E7ACD5A3AD6548FCEF6AE57E0F7384" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{519FDC6C-E4BE-449C-AE13-B151CFD26759}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="1440" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -435,15 +443,15 @@
   <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:I242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="18" width="21.5703125" customWidth="1"/>
+    <col min="3" max="18" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -486,28 +494,28 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43400.795241747684</v>
+        <v>43402.687436539352</v>
       </c>
       <c r="B2" s="2">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -516,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>2</v>
@@ -524,19 +532,19 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43400.795440949078</v>
+        <v>43493.418587511573</v>
       </c>
       <c r="B3" s="2">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -545,16 +553,16 @@
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
@@ -562,139 +570,139 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43402.687436539352</v>
+        <v>43683.376247662032</v>
       </c>
       <c r="B4" s="2">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43434.468311793986</v>
+        <v>43683.376332361113</v>
       </c>
       <c r="B5" s="2">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43493.418587511573</v>
+        <v>43434.468311793986</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43683.376247662032</v>
+        <v>43400.795241747684</v>
       </c>
       <c r="B7" s="2">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
@@ -703,36 +711,36 @@
         <v>3</v>
       </c>
       <c r="J7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43683.376332361113</v>
+        <v>43400.795440949078</v>
       </c>
       <c r="B8" s="2">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -741,27 +749,27 @@
         <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43400.796170150468</v>
+        <v>43402.692491585651</v>
       </c>
       <c r="B9" s="2">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -776,42 +784,42 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43402.692491585651</v>
+        <v>43683.38009637731</v>
       </c>
       <c r="B10" s="2">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
@@ -820,10 +828,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,60 +874,60 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43683.38009637731</v>
+        <v>43400.796170150468</v>
       </c>
       <c r="B12" s="2">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43400.797528530093</v>
+        <v>43402.695070648144</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -931,10 +939,10 @@
         <v>3</v>
       </c>
       <c r="J13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
         <v>3</v>
@@ -942,13 +950,13 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43402.695070648144</v>
+        <v>43683.384968020837</v>
       </c>
       <c r="B14" s="2">
         <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -957,16 +965,16 @@
         <v>3</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
         <v>3</v>
@@ -1018,95 +1026,95 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43627.616437546298</v>
+        <v>43636.659293680554</v>
       </c>
       <c r="B16" s="2">
         <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>43636.659293680554</v>
+        <v>43627.616437546298</v>
       </c>
       <c r="B17" s="2">
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43683.384968020837</v>
+        <v>43400.797528530093</v>
       </c>
       <c r="B18" s="2">
         <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="2">
         <v>2</v>
@@ -1115,16 +1123,16 @@
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="2">
         <v>3</v>
@@ -1132,16 +1140,16 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>43400.79839369213</v>
+        <v>43402.697141828699</v>
       </c>
       <c r="B19" s="2">
         <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -1159,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2">
         <v>2</v>
@@ -1170,13 +1178,13 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43402.697141828699</v>
+        <v>43683.387297384259</v>
       </c>
       <c r="B20" s="2">
         <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -1188,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -1197,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>2</v>
@@ -1284,92 +1292,92 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43627.619262650463</v>
+        <v>43636.660016724534</v>
       </c>
       <c r="B23" s="2">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43636.660016724534</v>
+        <v>43627.619262650463</v>
       </c>
       <c r="B24" s="2">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43683.387297384259</v>
+        <v>43400.79839369213</v>
       </c>
       <c r="B25" s="2">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1378,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
@@ -1390,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="2">
         <v>2</v>
@@ -1398,13 +1406,13 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43400.799132893517</v>
+        <v>43402.703058472223</v>
       </c>
       <c r="B26" s="2">
         <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1436,83 +1444,83 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43402.703058472223</v>
+        <v>43683.389041840273</v>
       </c>
       <c r="B27" s="2">
         <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43627.613527326394</v>
+        <v>43636.658225162042</v>
       </c>
       <c r="B28" s="2">
         <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43636.658225162042</v>
+        <v>43636.658790856483</v>
       </c>
       <c r="B29" s="2">
         <v>74</v>
@@ -1521,42 +1529,42 @@
         <v>14</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43636.658790856483</v>
+        <v>43627.613527326394</v>
       </c>
       <c r="B30" s="2">
         <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1588,54 +1596,54 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43683.389041840273</v>
+        <v>43400.799132893517</v>
       </c>
       <c r="B31" s="2">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43400.799987812497</v>
+        <v>43402.707097604165</v>
       </c>
       <c r="B32" s="2">
         <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -1647,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2">
         <v>2</v>
@@ -1656,71 +1664,71 @@
         <v>3</v>
       </c>
       <c r="K32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43402.707097604165</v>
+        <v>43683.399609259257</v>
       </c>
       <c r="B33" s="2">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2">
         <v>2</v>
       </c>
       <c r="G33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
       </c>
       <c r="J33" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43683.399609259257</v>
+        <v>43400.799987812497</v>
       </c>
       <c r="B34" s="2">
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2">
         <v>2</v>
@@ -1729,24 +1737,24 @@
         <v>2</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43400.800957002313</v>
+        <v>43402.988135601852</v>
       </c>
       <c r="B35" s="2">
         <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -1758,16 +1766,16 @@
         <v>4</v>
       </c>
       <c r="G35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="2">
         <v>5</v>
       </c>
       <c r="J35" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" s="2">
         <v>5</v>
@@ -1778,16 +1786,16 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43402.988135601852</v>
+        <v>43683.40098982639</v>
       </c>
       <c r="B36" s="2">
         <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
@@ -1802,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" s="2">
         <v>4</v>
@@ -1816,16 +1824,16 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43683.40098982639</v>
+        <v>43400.800957002313</v>
       </c>
       <c r="B37" s="2">
         <v>91</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
@@ -1834,16 +1842,16 @@
         <v>4</v>
       </c>
       <c r="G37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K37" s="2">
         <v>5</v>
@@ -1854,127 +1862,127 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43400.801587766204</v>
+        <v>43402.989517615744</v>
       </c>
       <c r="B38" s="2">
         <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43402.989517615744</v>
+        <v>43683.408623437499</v>
       </c>
       <c r="B39" s="2">
         <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43683.408623437499</v>
+        <v>43400.801587766204</v>
       </c>
       <c r="B40" s="2">
         <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2">
         <v>4</v>
       </c>
       <c r="I40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" s="2">
         <v>4</v>
       </c>
       <c r="K40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43400.802429085648</v>
+        <v>43402.99078821759</v>
       </c>
       <c r="B41" s="2">
         <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -1983,10 +1991,10 @@
         <v>3</v>
       </c>
       <c r="F41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2">
         <v>3</v>
@@ -2006,57 +2014,57 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43402.99078821759</v>
+        <v>43683.409954513889</v>
       </c>
       <c r="B42" s="2">
         <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" s="2">
         <v>3</v>
       </c>
       <c r="L42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43683.409954513889</v>
+        <v>43400.802429085648</v>
       </c>
       <c r="B43" s="2">
         <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
@@ -2065,74 +2073,74 @@
         <v>3</v>
       </c>
       <c r="H43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43" s="2">
         <v>3</v>
       </c>
       <c r="L43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43400.803584212961</v>
+        <v>43402.992231180557</v>
       </c>
       <c r="B44" s="2">
         <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
       </c>
       <c r="K44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43402.992231180557</v>
+        <v>43683.411493506945</v>
       </c>
       <c r="B45" s="2">
         <v>143</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2">
         <v>4</v>
       </c>
       <c r="E45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
@@ -2141,13 +2149,13 @@
         <v>2</v>
       </c>
       <c r="H45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" s="2">
         <v>3</v>
@@ -2158,37 +2166,37 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43627.621015949073</v>
+        <v>43636.660791979171</v>
       </c>
       <c r="B46" s="2">
         <v>143</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2">
         <v>4</v>
       </c>
       <c r="H46" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
       </c>
       <c r="J46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2">
         <v>4</v>
@@ -2196,7 +2204,7 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43627.621164131946</v>
+        <v>43627.621015949073</v>
       </c>
       <c r="B47" s="2">
         <v>143</v>
@@ -2234,37 +2242,37 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43636.660791979171</v>
+        <v>43627.621164131946</v>
       </c>
       <c r="B48" s="2">
         <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="2">
         <v>4</v>
       </c>
       <c r="H48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" s="2">
         <v>4</v>
       </c>
       <c r="J48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" s="2">
         <v>4</v>
@@ -2272,40 +2280,40 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43683.411493506945</v>
+        <v>43400.803584212961</v>
       </c>
       <c r="B49" s="2">
         <v>143</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
       </c>
       <c r="H49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2">
         <v>2</v>
       </c>
       <c r="J49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -2424,13 +2432,13 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43627.622492905095</v>
+        <v>43683.430034143516</v>
       </c>
       <c r="B53" s="2">
         <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -2457,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -2500,13 +2508,13 @@
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43683.430034143516</v>
+        <v>43627.622492905095</v>
       </c>
       <c r="B55" s="2">
         <v>164</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
@@ -2533,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="L55" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -2576,25 +2584,25 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43627.624138009254</v>
+        <v>43683.443336331024</v>
       </c>
       <c r="B57" s="2">
         <v>171</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="2">
         <v>5</v>
@@ -2652,25 +2660,25 @@
     </row>
     <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43683.443336331024</v>
+        <v>43627.624138009254</v>
       </c>
       <c r="B59" s="2">
         <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
       </c>
       <c r="E59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="2">
         <v>5</v>
@@ -2994,16 +3002,16 @@
     </row>
     <row r="68" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43627.625932476847</v>
+        <v>43636.585137615737</v>
       </c>
       <c r="B68" s="2">
         <v>222</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2">
         <v>3</v>
@@ -3012,60 +3020,60 @@
         <v>3</v>
       </c>
       <c r="G68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" s="2">
         <v>3</v>
       </c>
       <c r="I68" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68" s="2">
         <v>3</v>
       </c>
       <c r="K68" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43636.585137615737</v>
+        <v>43683.458104652775</v>
       </c>
       <c r="B69" s="2">
         <v>222</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I69" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" s="2">
         <v>3</v>
       </c>
       <c r="K69" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3108,28 +3116,28 @@
     </row>
     <row r="71" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43683.458104652775</v>
+        <v>43627.625932476847</v>
       </c>
       <c r="B71" s="2">
         <v>222</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="2">
         <v>3</v>
       </c>
       <c r="H71" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I71" s="2">
         <v>4</v>
@@ -3138,86 +3146,86 @@
         <v>3</v>
       </c>
       <c r="K71" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43627.627794710643</v>
+        <v>43636.586506006948</v>
       </c>
       <c r="B72" s="2">
         <v>225</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="2">
         <v>2</v>
       </c>
       <c r="J72" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" s="2">
         <v>2</v>
       </c>
       <c r="L72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43636.586506006948</v>
+        <v>43683.460186076394</v>
       </c>
       <c r="B73" s="2">
         <v>225</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73" s="2">
         <v>2</v>
       </c>
       <c r="J73" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" s="2">
         <v>2</v>
       </c>
       <c r="L73" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3260,28 +3268,28 @@
     </row>
     <row r="75" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43683.460186076394</v>
+        <v>43627.627794710643</v>
       </c>
       <c r="B75" s="2">
         <v>225</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" s="2">
         <v>2</v>
       </c>
       <c r="G75" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I75" s="2">
         <v>2</v>
@@ -3298,78 +3306,78 @@
     </row>
     <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43627.630635497684</v>
+        <v>43636.58848525463</v>
       </c>
       <c r="B76" s="2">
         <v>226</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" s="2">
         <v>4</v>
       </c>
       <c r="H76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I76" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76" s="2">
         <v>4</v>
       </c>
       <c r="L76" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43636.58848525463</v>
+        <v>43683.462426354163</v>
       </c>
       <c r="B77" s="2">
         <v>226</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2">
         <v>4</v>
       </c>
       <c r="H77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J77" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3412,40 +3420,40 @@
     </row>
     <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43683.462426354163</v>
+        <v>43627.630635497684</v>
       </c>
       <c r="B79" s="2">
         <v>226</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G79" s="2">
         <v>4</v>
       </c>
       <c r="H79" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I79" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J79" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K79" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L79" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3678,40 +3686,40 @@
     </row>
     <row r="86" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43627.63270159722</v>
+        <v>43683.466605775466</v>
       </c>
       <c r="B86" s="2">
         <v>240</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L86" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3754,40 +3762,40 @@
     </row>
     <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43683.466605775466</v>
+        <v>43627.63270159722</v>
       </c>
       <c r="B88" s="2">
         <v>240</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J88" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L88" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3868,40 +3876,40 @@
     </row>
     <row r="91" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43630.611113726853</v>
+        <v>43683.471433506944</v>
       </c>
       <c r="B91" s="2">
         <v>253</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
       </c>
       <c r="F91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="2">
         <v>1</v>
       </c>
       <c r="H91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
       </c>
       <c r="J91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" s="2">
         <v>1</v>
       </c>
       <c r="L91" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3944,40 +3952,40 @@
     </row>
     <row r="93" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43683.471433506944</v>
+        <v>43630.611113726853</v>
       </c>
       <c r="B93" s="2">
         <v>253</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
       <c r="F93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="2">
         <v>1</v>
       </c>
       <c r="J93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" s="2">
         <v>1</v>
       </c>
       <c r="L93" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -4438,28 +4446,28 @@
     </row>
     <row r="106" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>43630.61347167824</v>
+        <v>43636.59024046296</v>
       </c>
       <c r="B106" s="2">
         <v>302</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" s="2">
         <v>2</v>
       </c>
       <c r="F106" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" s="2">
         <v>2</v>
@@ -4468,48 +4476,48 @@
         <v>2</v>
       </c>
       <c r="K106" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L106" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>43636.59024046296</v>
+        <v>43683.515970462962</v>
       </c>
       <c r="B107" s="2">
         <v>302</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" s="2">
         <v>2</v>
       </c>
       <c r="J107" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K107" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L107" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -4552,19 +4560,19 @@
     </row>
     <row r="109" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>43683.515970462962</v>
+        <v>43630.61347167824</v>
       </c>
       <c r="B109" s="2">
         <v>302</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" s="2">
         <v>3</v>
@@ -4573,19 +4581,19 @@
         <v>2</v>
       </c>
       <c r="H109" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109" s="2">
         <v>2</v>
       </c>
       <c r="J109" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K109" s="2">
         <v>3</v>
       </c>
       <c r="L109" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -4628,13 +4636,13 @@
     </row>
     <row r="111" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>43630.615455671301</v>
+        <v>43636.591523587966</v>
       </c>
       <c r="B111" s="2">
         <v>344</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2">
         <v>4</v>
@@ -4643,63 +4651,63 @@
         <v>4</v>
       </c>
       <c r="F111" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G111" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H111" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I111" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J111" s="2">
         <v>4</v>
       </c>
       <c r="K111" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L111" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>43636.591523587966</v>
+        <v>43683.527952534721</v>
       </c>
       <c r="B112" s="2">
         <v>344</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2">
         <v>4</v>
       </c>
       <c r="E112" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" s="2">
         <v>4</v>
       </c>
       <c r="G112" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H112" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I112" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J112" s="2">
         <v>4</v>
       </c>
       <c r="K112" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L112" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -4742,25 +4750,25 @@
     </row>
     <row r="114" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>43683.527952534721</v>
+        <v>43630.615455671301</v>
       </c>
       <c r="B114" s="2">
         <v>344</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2">
         <v>4</v>
       </c>
       <c r="E114" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G114" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H114" s="2">
         <v>4</v>
@@ -4772,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="K114" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L114" s="2">
         <v>4</v>
@@ -4780,13 +4788,13 @@
     </row>
     <row r="115" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43635.65877962963</v>
+        <v>43739.567679791668</v>
       </c>
       <c r="B115" s="2">
         <v>345</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2">
         <v>4</v>
@@ -4795,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="F115" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G115" s="2">
         <v>5</v>
@@ -4807,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="J115" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K115" s="2">
         <v>4</v>
@@ -4818,45 +4826,45 @@
     </row>
     <row r="116" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>43636.59489310185</v>
+        <v>43685.460729976854</v>
       </c>
       <c r="B116" s="2">
         <v>345</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D116" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F116" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G116" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H116" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I116" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J116" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K116" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L116" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>43636.671309027777</v>
+        <v>43636.59489310185</v>
       </c>
       <c r="B117" s="2">
         <v>345</v>
@@ -4865,51 +4873,51 @@
         <v>14</v>
       </c>
       <c r="D117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H117" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J117" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K117" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L117" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>43685.460729976854</v>
+        <v>43636.671309027777</v>
       </c>
       <c r="B118" s="2">
         <v>345</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" s="2">
         <v>5</v>
       </c>
       <c r="F118" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G118" s="2">
         <v>4</v>
@@ -4921,10 +4929,10 @@
         <v>4</v>
       </c>
       <c r="J118" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K118" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L118" s="2">
         <v>5</v>
@@ -4932,13 +4940,13 @@
     </row>
     <row r="119" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>43739.567679791668</v>
+        <v>43635.65877962963</v>
       </c>
       <c r="B119" s="2">
         <v>345</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2">
         <v>4</v>
@@ -4947,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="F119" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G119" s="2">
         <v>5</v>
@@ -4959,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="J119" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K119" s="2">
         <v>4</v>
@@ -5008,75 +5016,75 @@
     </row>
     <row r="121" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43635.660874479167</v>
+        <v>43739.570490381942</v>
       </c>
       <c r="B121" s="2">
         <v>361</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121" s="2">
         <v>3</v>
       </c>
       <c r="F121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121" s="2">
         <v>3</v>
       </c>
       <c r="H121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" s="2">
         <v>3</v>
       </c>
       <c r="J121" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K121" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L121" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>43636.671795289352</v>
+        <v>43685.468866076393</v>
       </c>
       <c r="B122" s="2">
         <v>361</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D122" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G122" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I122" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J122" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K122" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L122" s="2">
         <v>1</v>
@@ -5084,37 +5092,37 @@
     </row>
     <row r="123" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>43685.468866076393</v>
+        <v>43636.671795289352</v>
       </c>
       <c r="B123" s="2">
         <v>361</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E123" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F123" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K123" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L123" s="2">
         <v>1</v>
@@ -5122,40 +5130,40 @@
     </row>
     <row r="124" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>43739.570490381942</v>
+        <v>43635.660874479167</v>
       </c>
       <c r="B124" s="2">
         <v>361</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" s="2">
         <v>3</v>
       </c>
       <c r="F124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124" s="2">
         <v>3</v>
       </c>
       <c r="H124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" s="2">
         <v>3</v>
       </c>
       <c r="J124" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K124" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -5236,154 +5244,154 @@
     </row>
     <row r="127" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>43635.662539710647</v>
+        <v>43739.573424618051</v>
       </c>
       <c r="B127" s="2">
         <v>384</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L127" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43636.672651736109</v>
+        <v>43686.446162175926</v>
       </c>
       <c r="B128" s="2">
         <v>384</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F128" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G128" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I128" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J128" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L128" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>43686.446162175926</v>
+        <v>43636.672651736109</v>
       </c>
       <c r="B129" s="2">
         <v>384</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E129" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G129" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H129" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I129" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J129" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K129" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L129" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>43739.573424618051</v>
+        <v>43635.662539710647</v>
       </c>
       <c r="B130" s="2">
         <v>384</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E130" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L130" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -5426,60 +5434,60 @@
     </row>
     <row r="132" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>43635.672358703705</v>
+        <v>43739.574996215277</v>
       </c>
       <c r="B132" s="2">
         <v>414</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E132" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G132" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H132" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J132" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K132" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L132" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>43636.676974664355</v>
+        <v>43686.454233101853</v>
       </c>
       <c r="B133" s="2">
         <v>414</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D133" s="2">
         <v>3</v>
       </c>
       <c r="E133" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F133" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G133" s="2">
         <v>3</v>
@@ -5491,33 +5499,33 @@
         <v>2</v>
       </c>
       <c r="J133" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K133" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L133" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43686.454233101853</v>
+        <v>43636.676974664355</v>
       </c>
       <c r="B134" s="2">
         <v>414</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2">
         <v>3</v>
       </c>
       <c r="E134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G134" s="2">
         <v>3</v>
@@ -5529,106 +5537,106 @@
         <v>2</v>
       </c>
       <c r="J134" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43739.574996215277</v>
+        <v>43635.672358703705</v>
       </c>
       <c r="B135" s="2">
         <v>414</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F135" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H135" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K135" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43635.67360800926</v>
+        <v>43739.577023819445</v>
       </c>
       <c r="B136" s="2">
         <v>417</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F136" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H136" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J136" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L136" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43635.673719456019</v>
+        <v>43686.456101770833</v>
       </c>
       <c r="B137" s="2">
         <v>417</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F137" s="2">
         <v>4</v>
@@ -5646,10 +5654,10 @@
         <v>5</v>
       </c>
       <c r="K137" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L137" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -5692,19 +5700,19 @@
     </row>
     <row r="139" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43686.456101770833</v>
+        <v>43635.67360800926</v>
       </c>
       <c r="B139" s="2">
         <v>417</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E139" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F139" s="2">
         <v>4</v>
@@ -5722,80 +5730,80 @@
         <v>5</v>
       </c>
       <c r="K139" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L139" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43739.577023819445</v>
+        <v>43635.673719456019</v>
       </c>
       <c r="B140" s="2">
         <v>417</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E140" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F140" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G140" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H140" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I140" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J140" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K140" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L140" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43635.675555590278</v>
+        <v>43739.579182488422</v>
       </c>
       <c r="B141" s="2">
         <v>425</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" s="2">
         <v>1</v>
       </c>
       <c r="F141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K141" s="2">
         <v>1</v>
@@ -5806,45 +5814,45 @@
     </row>
     <row r="142" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>43636.678604560184</v>
+        <v>43686.46491490741</v>
       </c>
       <c r="B142" s="2">
         <v>425</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2">
         <v>1</v>
       </c>
       <c r="F142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" s="2">
         <v>1</v>
       </c>
       <c r="H142" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" s="2">
         <v>1</v>
       </c>
       <c r="K142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>43686.46491490741</v>
+        <v>43697.419963715278</v>
       </c>
       <c r="B143" s="2">
         <v>425</v>
@@ -5853,28 +5861,28 @@
         <v>16</v>
       </c>
       <c r="D143" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E143" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G143" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L143" s="2">
         <v>2</v>
@@ -5882,72 +5890,72 @@
     </row>
     <row r="144" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43697.419963715278</v>
+        <v>43636.678604560184</v>
       </c>
       <c r="B144" s="2">
         <v>425</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L144" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>43739.579182488422</v>
+        <v>43635.675555590278</v>
       </c>
       <c r="B145" s="2">
         <v>425</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" s="2">
         <v>1</v>
       </c>
       <c r="F145" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" s="2">
         <v>1</v>
@@ -6034,16 +6042,16 @@
     </row>
     <row r="148" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>43635.676807511569</v>
+        <v>43739.581202453701</v>
       </c>
       <c r="B148" s="2">
         <v>440</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" s="2">
         <v>1</v>
@@ -6072,13 +6080,13 @@
     </row>
     <row r="149" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>43636.679265312501</v>
+        <v>43686.475852881944</v>
       </c>
       <c r="B149" s="2">
         <v>440</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2">
         <v>2</v>
@@ -6087,7 +6095,7 @@
         <v>2</v>
       </c>
       <c r="F149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" s="2">
         <v>1</v>
@@ -6110,13 +6118,13 @@
     </row>
     <row r="150" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>43686.475852881944</v>
+        <v>43636.679265312501</v>
       </c>
       <c r="B150" s="2">
         <v>440</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2">
         <v>2</v>
@@ -6125,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="F150" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" s="2">
         <v>1</v>
@@ -6148,16 +6156,16 @@
     </row>
     <row r="151" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>43739.581202453701</v>
+        <v>43635.676807511569</v>
       </c>
       <c r="B151" s="2">
         <v>440</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -6186,154 +6194,154 @@
     </row>
     <row r="152" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>43635.678093252311</v>
+        <v>43739.583233807869</v>
       </c>
       <c r="B152" s="2">
         <v>441</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E152" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G152" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H152" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I152" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J152" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K152" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L152" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>43636.679867789353</v>
+        <v>43686.497101319444</v>
       </c>
       <c r="B153" s="2">
         <v>441</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2">
         <v>3</v>
       </c>
       <c r="E153" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F153" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G153" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H153" s="2">
         <v>4</v>
       </c>
       <c r="I153" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J153" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K153" s="2">
         <v>3</v>
       </c>
       <c r="L153" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>43686.497101319444</v>
+        <v>43636.679867789353</v>
       </c>
       <c r="B154" s="2">
         <v>441</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2">
         <v>3</v>
       </c>
       <c r="E154" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F154" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G154" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154" s="2">
         <v>4</v>
       </c>
       <c r="I154" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J154" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K154" s="2">
         <v>3</v>
       </c>
       <c r="L154" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>43739.583233807869</v>
+        <v>43635.678093252311</v>
       </c>
       <c r="B155" s="2">
         <v>441</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D155" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E155" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F155" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G155" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H155" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I155" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J155" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K155" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L155" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -6566,154 +6574,154 @@
     </row>
     <row r="162" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>43635.679811817128</v>
+        <v>43739.58586741898</v>
       </c>
       <c r="B162" s="2">
         <v>498</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" s="2">
         <v>2</v>
       </c>
       <c r="F162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G162" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K162" s="2">
         <v>2</v>
       </c>
       <c r="L162" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>43636.681560671292</v>
+        <v>43686.52522599537</v>
       </c>
       <c r="B163" s="2">
         <v>498</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E163" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F163" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G163" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I163" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J163" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K163" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L163" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>43686.52522599537</v>
+        <v>43636.681560671292</v>
       </c>
       <c r="B164" s="2">
         <v>498</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E164" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G164" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H164" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K164" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L164" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>43739.58586741898</v>
+        <v>43635.679811817128</v>
       </c>
       <c r="B165" s="2">
         <v>498</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D165" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165" s="2">
         <v>2</v>
       </c>
       <c r="F165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G165" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H165" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K165" s="2">
         <v>2</v>
       </c>
       <c r="L165" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -6870,189 +6878,189 @@
     </row>
     <row r="170" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>43635.681530127316</v>
+        <v>43739.587561481487</v>
       </c>
       <c r="B170" s="2">
         <v>530</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E170" s="2">
         <v>3</v>
       </c>
       <c r="F170" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G170" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J170" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K170" s="2">
         <v>3</v>
       </c>
       <c r="L170" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43636.681975729167</v>
+        <v>43686.712636782409</v>
       </c>
       <c r="B171" s="2">
         <v>530</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D171" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E171" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F171" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G171" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H171" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I171" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J171" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K171" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L171" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>43686.712636782409</v>
+        <v>43636.681975729167</v>
       </c>
       <c r="B172" s="2">
         <v>530</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D172" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F172" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G172" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H172" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I172" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J172" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L172" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>43739.587561481487</v>
+        <v>43635.681530127316</v>
       </c>
       <c r="B173" s="2">
         <v>530</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173" s="2">
         <v>3</v>
       </c>
       <c r="F173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I173" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K173" s="2">
         <v>3</v>
       </c>
       <c r="L173" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>43635.683096898152</v>
+        <v>43739.59083158565</v>
       </c>
       <c r="B174" s="2">
         <v>536</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E174" s="2">
         <v>4</v>
       </c>
       <c r="F174" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G174" s="2">
         <v>3</v>
       </c>
       <c r="H174" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I174" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J174" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K174" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L174" s="2">
         <v>4</v>
@@ -7060,45 +7068,45 @@
     </row>
     <row r="175" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43636.68252771991</v>
+        <v>43686.724106539354</v>
       </c>
       <c r="B175" s="2">
         <v>536</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D175" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G175" s="2">
         <v>3</v>
       </c>
       <c r="H175" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J175" s="2">
         <v>4</v>
       </c>
       <c r="K175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L175" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>43686.724106539354</v>
+        <v>43686.7934393287</v>
       </c>
       <c r="B176" s="2">
         <v>536</v>
@@ -7113,10 +7121,10 @@
         <v>4</v>
       </c>
       <c r="F176" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H176" s="2">
         <v>5</v>
@@ -7125,48 +7133,48 @@
         <v>4</v>
       </c>
       <c r="J176" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K176" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L176" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>43686.7934393287</v>
+        <v>43636.68252771991</v>
       </c>
       <c r="B177" s="2">
         <v>536</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D177" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F177" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G177" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H177" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I177" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J177" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K177" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L177" s="2">
         <v>4</v>
@@ -7174,37 +7182,37 @@
     </row>
     <row r="178" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>43739.59083158565</v>
+        <v>43635.683096898152</v>
       </c>
       <c r="B178" s="2">
         <v>536</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D178" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E178" s="2">
         <v>4</v>
       </c>
       <c r="F178" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G178" s="2">
         <v>3</v>
       </c>
       <c r="H178" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I178" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J178" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K178" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L178" s="2">
         <v>4</v>
@@ -7364,13 +7372,13 @@
     </row>
     <row r="183" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>43635.684823854172</v>
+        <v>43739.594682291667</v>
       </c>
       <c r="B183" s="2">
         <v>559</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2">
         <v>3</v>
@@ -7379,112 +7387,112 @@
         <v>4</v>
       </c>
       <c r="F183" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G183" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H183" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I183" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J183" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K183" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L183" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>43636.683251134258</v>
+        <v>43687.626962800925</v>
       </c>
       <c r="B184" s="2">
         <v>559</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D184" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H184" s="2">
         <v>5</v>
       </c>
       <c r="I184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L184" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>43687.626962800925</v>
+        <v>43636.683251134258</v>
       </c>
       <c r="B185" s="2">
         <v>559</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D185" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H185" s="2">
         <v>5</v>
       </c>
       <c r="I185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>43739.594682291667</v>
+        <v>43635.684823854172</v>
       </c>
       <c r="B186" s="2">
         <v>559</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D186" s="2">
         <v>3</v>
@@ -7493,25 +7501,25 @@
         <v>4</v>
       </c>
       <c r="F186" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G186" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H186" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I186" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J186" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K186" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L186" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -7630,154 +7638,154 @@
     </row>
     <row r="190" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>43635.687207048613</v>
+        <v>43739.598170555561</v>
       </c>
       <c r="B190" s="2">
         <v>615</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2">
         <v>4</v>
       </c>
       <c r="E190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F190" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H190" s="2">
         <v>5</v>
       </c>
       <c r="I190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L190" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>43636.684147928245</v>
+        <v>43687.644379224541</v>
       </c>
       <c r="B191" s="2">
         <v>615</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D191" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E191" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F191" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G191" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H191" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I191" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J191" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K191" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L191" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>43687.644379224541</v>
+        <v>43636.684147928245</v>
       </c>
       <c r="B192" s="2">
         <v>615</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D192" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E192" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F192" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G192" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J192" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K192" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L192" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>43739.598170555561</v>
+        <v>43635.687207048613</v>
       </c>
       <c r="B193" s="2">
         <v>615</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D193" s="2">
         <v>4</v>
       </c>
       <c r="E193" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F193" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G193" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H193" s="2">
         <v>5</v>
       </c>
       <c r="I193" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J193" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K193" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L193" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -7820,19 +7828,19 @@
     </row>
     <row r="195" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>43635.688810081017</v>
+        <v>43739.600427662037</v>
       </c>
       <c r="B195" s="2">
         <v>689</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2">
         <v>1</v>
       </c>
       <c r="E195" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
@@ -7844,10 +7852,10 @@
         <v>1</v>
       </c>
       <c r="I195" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K195" s="2">
         <v>1</v>
@@ -7858,16 +7866,16 @@
     </row>
     <row r="196" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43636.68478570602</v>
+        <v>43697.428014618054</v>
       </c>
       <c r="B196" s="2">
         <v>689</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D196" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E196" s="2">
         <v>2</v>
@@ -7879,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="H196" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" s="2">
         <v>1</v>
@@ -7896,16 +7904,16 @@
     </row>
     <row r="197" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>43697.428014618054</v>
+        <v>43636.68478570602</v>
       </c>
       <c r="B197" s="2">
         <v>689</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D197" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E197" s="2">
         <v>2</v>
@@ -7917,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="H197" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I197" s="2">
         <v>1</v>
@@ -7934,19 +7942,19 @@
     </row>
     <row r="198" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>43739.600427662037</v>
+        <v>43635.688810081017</v>
       </c>
       <c r="B198" s="2">
         <v>689</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D198" s="2">
         <v>1</v>
       </c>
       <c r="E198" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" s="2">
         <v>1</v>
@@ -7958,10 +7966,10 @@
         <v>1</v>
       </c>
       <c r="I198" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K198" s="2">
         <v>1</v>
@@ -7972,183 +7980,183 @@
     </row>
     <row r="199" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>43635.690463692124</v>
+        <v>43739.602688877319</v>
       </c>
       <c r="B199" s="2">
         <v>716</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D199" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F199" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G199" s="2">
         <v>2</v>
       </c>
       <c r="H199" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I199" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J199" s="2">
         <v>2</v>
       </c>
       <c r="K199" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L199" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>43636.685300636571</v>
+        <v>43697.429745300928</v>
       </c>
       <c r="B200" s="2">
         <v>716</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D200" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E200" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F200" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G200" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H200" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I200" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J200" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K200" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L200" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>43697.429745300928</v>
+        <v>43636.685300636571</v>
       </c>
       <c r="B201" s="2">
         <v>716</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D201" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E201" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F201" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G201" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H201" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I201" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J201" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K201" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L201" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>43739.602688877319</v>
+        <v>43635.690463692124</v>
       </c>
       <c r="B202" s="2">
         <v>716</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F202" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G202" s="2">
         <v>2</v>
       </c>
       <c r="H202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J202" s="2">
         <v>2</v>
       </c>
       <c r="K202" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L202" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>43635.691996817128</v>
+        <v>43739.604979432872</v>
       </c>
       <c r="B203" s="2">
         <v>717</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203" s="2">
         <v>1</v>
       </c>
       <c r="H203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J203" s="2">
         <v>2</v>
@@ -8157,36 +8165,36 @@
         <v>1</v>
       </c>
       <c r="L203" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>43636.685953333334</v>
+        <v>43697.431776076388</v>
       </c>
       <c r="B204" s="2">
         <v>717</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D204" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E204" s="2">
         <v>2</v>
       </c>
       <c r="F204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J204" s="2">
         <v>2</v>
@@ -8195,36 +8203,36 @@
         <v>2</v>
       </c>
       <c r="L204" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>43697.431776076388</v>
+        <v>43636.685953333334</v>
       </c>
       <c r="B205" s="2">
         <v>717</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E205" s="2">
         <v>2</v>
       </c>
       <c r="F205" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I205" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" s="2">
         <v>2</v>
@@ -8233,36 +8241,36 @@
         <v>2</v>
       </c>
       <c r="L205" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>43739.604979432872</v>
+        <v>43635.691996817128</v>
       </c>
       <c r="B206" s="2">
         <v>717</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D206" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G206" s="2">
         <v>1</v>
       </c>
       <c r="H206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J206" s="2">
         <v>2</v>
@@ -8271,56 +8279,56 @@
         <v>1</v>
       </c>
       <c r="L206" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>43635.693123773148</v>
+        <v>43739.606247986114</v>
       </c>
       <c r="B207" s="2">
         <v>742</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E207" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>43636.686461689816</v>
+        <v>43697.433164849535</v>
       </c>
       <c r="B208" s="2">
         <v>742</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D208" s="2">
         <v>5</v>
@@ -8332,7 +8340,7 @@
         <v>5</v>
       </c>
       <c r="G208" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H208" s="2">
         <v>5</v>
@@ -8352,13 +8360,13 @@
     </row>
     <row r="209" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>43697.433164849535</v>
+        <v>43636.686461689816</v>
       </c>
       <c r="B209" s="2">
         <v>742</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D209" s="2">
         <v>5</v>
@@ -8370,7 +8378,7 @@
         <v>5</v>
       </c>
       <c r="G209" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H209" s="2">
         <v>5</v>
@@ -8390,51 +8398,51 @@
     </row>
     <row r="210" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>43739.606247986114</v>
+        <v>43635.693123773148</v>
       </c>
       <c r="B210" s="2">
         <v>742</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E210" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L210" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>43635.694421504624</v>
+        <v>43739.607686469906</v>
       </c>
       <c r="B211" s="2">
         <v>761</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D211" s="2">
         <v>2</v>
@@ -8446,39 +8454,39 @@
         <v>1</v>
       </c>
       <c r="G211" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" s="2">
         <v>1</v>
       </c>
       <c r="J211" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K211" s="2">
         <v>1</v>
       </c>
       <c r="L211" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43636.687132407409</v>
+        <v>43697.434577002314</v>
       </c>
       <c r="B212" s="2">
         <v>761</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D212" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E212" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212" s="2">
         <v>2</v>
@@ -8496,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="K212" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L212" s="2">
         <v>2</v>
@@ -8504,19 +8512,19 @@
     </row>
     <row r="213" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>43697.434577002314</v>
+        <v>43636.687132407409</v>
       </c>
       <c r="B213" s="2">
         <v>761</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D213" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F213" s="2">
         <v>2</v>
@@ -8534,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="K213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L213" s="2">
         <v>2</v>
@@ -8542,13 +8550,13 @@
     </row>
     <row r="214" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>43739.607686469906</v>
+        <v>43635.694421504624</v>
       </c>
       <c r="B214" s="2">
         <v>761</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D214" s="2">
         <v>2</v>
@@ -8560,51 +8568,51 @@
         <v>1</v>
       </c>
       <c r="G214" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" s="2">
         <v>1</v>
       </c>
       <c r="J214" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K214" s="2">
         <v>1</v>
       </c>
       <c r="L214" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>43635.69679454861</v>
+        <v>43739.616321238427</v>
       </c>
       <c r="B215" s="2">
         <v>820</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D215" s="2">
         <v>3</v>
       </c>
       <c r="E215" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F215" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G215" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H215" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I215" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J215" s="2">
         <v>3</v>
@@ -8613,36 +8621,36 @@
         <v>3</v>
       </c>
       <c r="L215" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>43636.687939733798</v>
+        <v>43697.437290023146</v>
       </c>
       <c r="B216" s="2">
         <v>820</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D216" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E216" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F216" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G216" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H216" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I216" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J216" s="2">
         <v>4</v>
@@ -8651,36 +8659,36 @@
         <v>3</v>
       </c>
       <c r="L216" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>43697.437290023146</v>
+        <v>43636.687939733798</v>
       </c>
       <c r="B217" s="2">
         <v>820</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E217" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F217" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G217" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H217" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I217" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J217" s="2">
         <v>4</v>
@@ -8689,36 +8697,36 @@
         <v>3</v>
       </c>
       <c r="L217" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>43739.616321238427</v>
+        <v>43635.69679454861</v>
       </c>
       <c r="B218" s="2">
         <v>820</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D218" s="2">
         <v>3</v>
       </c>
       <c r="E218" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F218" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G218" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H218" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J218" s="2">
         <v>3</v>
@@ -8727,39 +8735,39 @@
         <v>3</v>
       </c>
       <c r="L218" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>43635.699220231487</v>
+        <v>43739.618467164357</v>
       </c>
       <c r="B219" s="2">
         <v>861</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D219" s="2">
         <v>3</v>
       </c>
       <c r="E219" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F219" s="2">
         <v>4</v>
       </c>
       <c r="G219" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H219" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I219" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J219" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K219" s="2">
         <v>3</v>
@@ -8770,110 +8778,110 @@
     </row>
     <row r="220" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>43636.689126458332</v>
+        <v>43697.439338530094</v>
       </c>
       <c r="B220" s="2">
         <v>861</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D220" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E220" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F220" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G220" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H220" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I220" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J220" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K220" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L220" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>43697.439338530094</v>
+        <v>43636.689126458332</v>
       </c>
       <c r="B221" s="2">
         <v>861</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E221" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F221" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G221" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H221" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I221" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J221" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K221" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L221" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>43739.618467164357</v>
+        <v>43635.699220231487</v>
       </c>
       <c r="B222" s="2">
         <v>861</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D222" s="2">
         <v>3</v>
       </c>
       <c r="E222" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F222" s="2">
         <v>4</v>
       </c>
       <c r="G222" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H222" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I222" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J222" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K222" s="2">
         <v>3</v>
@@ -8884,22 +8892,22 @@
     </row>
     <row r="223" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43635.701054201389</v>
+        <v>43739.620820138887</v>
       </c>
       <c r="B223" s="2">
         <v>881</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D223" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G223" s="2">
         <v>1</v>
@@ -8911,48 +8919,48 @@
         <v>2</v>
       </c>
       <c r="J223" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K223" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L223" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>43636.689688576385</v>
+        <v>43697.442065914351</v>
       </c>
       <c r="B224" s="2">
         <v>881</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D224" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E224" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F224" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G224" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H224" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I224" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J224" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K224" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L224" s="2">
         <v>1</v>
@@ -8960,37 +8968,37 @@
     </row>
     <row r="225" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>43697.442065914351</v>
+        <v>43636.689688576385</v>
       </c>
       <c r="B225" s="2">
         <v>881</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D225" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E225" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F225" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G225" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H225" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I225" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K225" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L225" s="2">
         <v>1</v>
@@ -8998,22 +9006,22 @@
     </row>
     <row r="226" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>43739.620820138887</v>
+        <v>43635.701054201389</v>
       </c>
       <c r="B226" s="2">
         <v>881</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D226" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E226" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" s="2">
         <v>1</v>
@@ -9025,36 +9033,36 @@
         <v>2</v>
       </c>
       <c r="J226" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K226" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L226" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>43635.702692951389</v>
+        <v>43739.622582326389</v>
       </c>
       <c r="B227" s="2">
         <v>895</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D227" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E227" s="2">
         <v>2</v>
       </c>
       <c r="F227" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G227" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" s="2">
         <v>2</v>
@@ -9063,7 +9071,7 @@
         <v>2</v>
       </c>
       <c r="J227" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K227" s="2">
         <v>2</v>
@@ -9074,22 +9082,22 @@
     </row>
     <row r="228" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>43636.690573587963</v>
+        <v>43697.443490358797</v>
       </c>
       <c r="B228" s="2">
         <v>895</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D228" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E228" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F228" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G228" s="2">
         <v>4</v>
@@ -9098,36 +9106,36 @@
         <v>4</v>
       </c>
       <c r="I228" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J228" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K228" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L228" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43697.443490358797</v>
+        <v>43636.690573587963</v>
       </c>
       <c r="B229" s="2">
         <v>895</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D229" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E229" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F229" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G229" s="2">
         <v>4</v>
@@ -9136,39 +9144,39 @@
         <v>4</v>
       </c>
       <c r="I229" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J229" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K229" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L229" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>43739.622582326389</v>
+        <v>43635.702692951389</v>
       </c>
       <c r="B230" s="2">
         <v>895</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D230" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E230" s="2">
         <v>2</v>
       </c>
       <c r="F230" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G230" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" s="2">
         <v>2</v>
@@ -9177,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="J230" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K230" s="2">
         <v>2</v>
@@ -9188,154 +9196,154 @@
     </row>
     <row r="231" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>43635.704218252315</v>
+        <v>43739.625451192129</v>
       </c>
       <c r="B231" s="2">
         <v>921</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D231" s="2">
         <v>4</v>
       </c>
       <c r="E231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H231" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K231" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>43636.6930440625</v>
+        <v>43697.449119641205</v>
       </c>
       <c r="B232" s="2">
         <v>921</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D232" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E232" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F232" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G232" s="2">
         <v>4</v>
       </c>
       <c r="H232" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I232" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J232" s="2">
         <v>4</v>
       </c>
       <c r="K232" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L232" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43697.449119641205</v>
+        <v>43636.6930440625</v>
       </c>
       <c r="B233" s="2">
         <v>921</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D233" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E233" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F233" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G233" s="2">
         <v>4</v>
       </c>
       <c r="H233" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I233" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J233" s="2">
         <v>4</v>
       </c>
       <c r="K233" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L233" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>43739.625451192129</v>
+        <v>43635.704218252315</v>
       </c>
       <c r="B234" s="2">
         <v>921</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D234" s="2">
         <v>4</v>
       </c>
       <c r="E234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H234" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K234" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L234" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -9378,34 +9386,34 @@
     </row>
     <row r="236" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>43635.706247407405</v>
+        <v>43739.627633333337</v>
       </c>
       <c r="B236" s="2">
         <v>928</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D236" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236" s="2">
         <v>2</v>
       </c>
       <c r="F236" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G236" s="2">
         <v>1</v>
       </c>
       <c r="H236" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K236" s="2">
         <v>1</v>
@@ -9416,25 +9424,25 @@
     </row>
     <row r="237" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>43636.69149302083</v>
+        <v>43697.451400555554</v>
       </c>
       <c r="B237" s="2">
         <v>928</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D237" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F237" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G237" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237" s="2">
         <v>3</v>
@@ -9443,36 +9451,36 @@
         <v>2</v>
       </c>
       <c r="J237" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K237" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L237" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>43697.451400555554</v>
+        <v>43636.69149302083</v>
       </c>
       <c r="B238" s="2">
         <v>928</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D238" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E238" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F238" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G238" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" s="2">
         <v>3</v>
@@ -9481,45 +9489,45 @@
         <v>2</v>
       </c>
       <c r="J238" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K238" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L238" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>43739.627633333337</v>
+        <v>43635.706247407405</v>
       </c>
       <c r="B239" s="2">
         <v>928</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D239" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" s="2">
         <v>2</v>
       </c>
       <c r="F239" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239" s="2">
         <v>1</v>
       </c>
       <c r="H239" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K239" s="2">
         <v>1</v>
@@ -9530,31 +9538,31 @@
     </row>
     <row r="240" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>43635.708369780092</v>
+        <v>43697.45361837963</v>
       </c>
       <c r="B240" s="2">
         <v>942</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D240" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E240" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F240" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G240" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I240" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J240" s="2">
         <v>3</v>
@@ -9563,7 +9571,7 @@
         <v>3</v>
       </c>
       <c r="L240" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -9606,31 +9614,31 @@
     </row>
     <row r="242" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>43697.45361837963</v>
+        <v>43635.708369780092</v>
       </c>
       <c r="B242" s="2">
         <v>942</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D242" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E242" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F242" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G242" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I242" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J242" s="2">
         <v>3</v>
@@ -9639,7 +9647,7 @@
         <v>3</v>
       </c>
       <c r="L242" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
